--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1304270.048096124</v>
+        <v>1299931.036029385</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7098937.042053147</v>
+        <v>7098937.042053145</v>
       </c>
     </row>
     <row r="9">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.8878163358817</v>
+        <v>188.3611703290585</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U11" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,10 +1460,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193207</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>104.8533946561527</v>
+        <v>104.8533946561529</v>
       </c>
       <c r="H12" t="n">
         <v>59.73653548534391</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>51.83036283416931</v>
       </c>
       <c r="D13" t="n">
-        <v>75.78552258002385</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>96.62084733317285</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>148.6886073140732</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H15" t="n">
-        <v>59.73653548534411</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>87.09445372222319</v>
       </c>
       <c r="T15" t="n">
-        <v>153.4484244137338</v>
+        <v>153.4484244137341</v>
       </c>
       <c r="U15" t="n">
         <v>195.3071174306206</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.2595650704572</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.4692219845308</v>
       </c>
       <c r="G16" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>88.28603573286843</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>12.46762036218889</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H17" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>8.619398793447928</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.54655876960695</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.8533946561529</v>
+        <v>104.8533946561527</v>
       </c>
       <c r="H18" t="n">
         <v>59.73653548534391</v>
@@ -2004,13 +2004,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2019,7 +2019,7 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H19" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>88.28603573286843</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>21.23779412587293</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T19" t="n">
         <v>233.3317950548276</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>61.76709780921734</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>330.7680801239728</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>278.3194514641258</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T21" t="n">
         <v>153.4484244137338</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>44.0828414345425</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6835037092309</v>
+        <v>44.78663288980345</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I22" t="n">
         <v>88.28603573286843</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>367.1004602079164</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.6471267764352</v>
+        <v>9.07911297273168</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T24" t="n">
         <v>153.4484244137338</v>
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2493,10 +2493,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H25" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>208.2289443916317</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>96.18609617445446</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>249.9746180372408</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>287.3796452813201</v>
+        <v>280.7018150772491</v>
       </c>
       <c r="I26" t="n">
         <v>8.619398793447928</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T26" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T27" t="n">
         <v>153.4484244137338</v>
@@ -2721,13 +2721,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>22.58915333166172</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H28" t="n">
         <v>140.1594986563935</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>191.6717688486434</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>139.3776383440122</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>363.7242422044886</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T30" t="n">
         <v>153.4484244137338</v>
@@ -2955,7 +2955,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2967,10 +2967,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H31" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.20525872441496</v>
+        <v>15.86028077036283</v>
       </c>
       <c r="S31" t="n">
         <v>168.9411860548871</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>43.75855457040358</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>255.0482486106829</v>
       </c>
       <c r="H32" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T32" t="n">
-        <v>106.6187123952581</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T33" t="n">
         <v>153.4484244137338</v>
@@ -3192,19 +3192,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>86.87595201785842</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H34" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>88.28603573286843</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U34" t="n">
         <v>279.9213814272745</v>
       </c>
       <c r="V34" t="n">
-        <v>139.9501022398554</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>353.5195911459618</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>256.9786353512436</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T36" t="n">
         <v>153.4484244137338</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3071174306206</v>
+        <v>195.307117430621</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3432,13 +3432,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>76.18695844615357</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H37" t="n">
         <v>140.1594986563935</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.20525872441496</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S37" t="n">
         <v>168.9411860548871</v>
@@ -3480,7 +3480,7 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U37" t="n">
-        <v>244.5535698055352</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>23.89467802563153</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>155.2353007545407</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193207</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>104.8533946561527</v>
       </c>
       <c r="H39" t="n">
-        <v>59.73653548534391</v>
+        <v>59.73653548534411</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T39" t="n">
         <v>153.4484244137338</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>167.6846535522902</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H40" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T40" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>224.071356311771</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H41" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I41" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V41" t="n">
-        <v>74.13918997976576</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>309.0009740234714</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H42" t="n">
-        <v>59.73653548534391</v>
+        <v>59.73653548534411</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.09445372222338</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T42" t="n">
         <v>153.4484244137338</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>76.35026382184131</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>94.27911367404319</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I43" t="n">
         <v>88.28603573286843</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.20525872441496</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9213814272745</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3979,16 +3979,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>93.37377073902323</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>54.96950083897577</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>402.6471267764352</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.09445372222338</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T45" t="n">
         <v>153.4484244137338</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>85.8662543135608</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.1594986563935</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.20525872441496</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S46" t="n">
-        <v>36.49213909712601</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U46" t="n">
         <v>279.9213814272745</v>
@@ -4197,10 +4197,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>855.1972056900578</v>
+        <v>1280.494224165093</v>
       </c>
       <c r="C11" t="n">
-        <v>445.0726150033279</v>
+        <v>870.3696334783635</v>
       </c>
       <c r="D11" t="n">
-        <v>40.60868509638841</v>
+        <v>870.3696334783635</v>
       </c>
       <c r="E11" t="n">
-        <v>40.60868509638841</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="F11" t="n">
-        <v>40.60868509638841</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="G11" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="H11" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I11" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J11" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K11" t="n">
-        <v>638.0861366614034</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L11" t="n">
-        <v>855.0574576210689</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M11" t="n">
-        <v>1109.305980251427</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N11" t="n">
-        <v>1369.537102180018</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O11" t="n">
-        <v>1609.865190526137</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P11" t="n">
-        <v>1801.00674839484</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q11" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R11" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S11" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T11" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U11" t="n">
-        <v>1773.534884249812</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V11" t="n">
-        <v>1423.697329586293</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="W11" t="n">
-        <v>1423.697329586293</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="X11" t="n">
-        <v>1423.697329586293</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="Y11" t="n">
-        <v>1022.760656534383</v>
+        <v>1470.758032578284</v>
       </c>
     </row>
     <row r="12">
@@ -5108,7 +5108,7 @@
         <v>315.8210196022644</v>
       </c>
       <c r="F12" t="n">
-        <v>206.8611397847688</v>
+        <v>206.861139784769</v>
       </c>
       <c r="G12" t="n">
         <v>100.9486199300691</v>
@@ -5117,31 +5117,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I12" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J12" t="n">
-        <v>89.53603285555947</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K12" t="n">
-        <v>204.8133672228701</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L12" t="n">
-        <v>707.3458452906766</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M12" t="n">
-        <v>917.9612058876496</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N12" t="n">
-        <v>1139.986429564937</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O12" t="n">
-        <v>1442.047340674179</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P12" t="n">
-        <v>1944.579818741986</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q12" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R12" t="n">
         <v>2030.43425481942</v>
@@ -5156,7 +5156,7 @@
         <v>1590.1817340451</v>
       </c>
       <c r="V12" t="n">
-        <v>1376.470207038133</v>
+        <v>1376.470207038134</v>
       </c>
       <c r="W12" t="n">
         <v>1163.237038774462</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>519.0061554834455</v>
+        <v>92.96258694908468</v>
       </c>
       <c r="C13" t="n">
-        <v>347.912783045162</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="D13" t="n">
-        <v>271.361750136047</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="E13" t="n">
-        <v>271.361750136047</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="F13" t="n">
-        <v>271.361750136047</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G13" t="n">
-        <v>271.361750136047</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H13" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I13" t="n">
         <v>40.60868509638841</v>
@@ -5208,16 +5208,16 @@
         <v>766.2539516990519</v>
       </c>
       <c r="M13" t="n">
-        <v>1194.314693290098</v>
+        <v>1108.983026439427</v>
       </c>
       <c r="N13" t="n">
-        <v>1610.649885887866</v>
+        <v>1193.283917589609</v>
       </c>
       <c r="O13" t="n">
-        <v>1680.288602348043</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P13" t="n">
-        <v>1993.0539399034</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q13" t="n">
         <v>2030.43425481942</v>
@@ -5232,19 +5232,19 @@
         <v>1579.446133774845</v>
       </c>
       <c r="U13" t="n">
-        <v>1296.697263646284</v>
+        <v>1296.697263646285</v>
       </c>
       <c r="V13" t="n">
-        <v>1022.811518585806</v>
+        <v>1022.811518585807</v>
       </c>
       <c r="W13" t="n">
-        <v>743.7418540946808</v>
+        <v>743.741854094681</v>
       </c>
       <c r="X13" t="n">
-        <v>743.7418540946808</v>
+        <v>505.3979919543644</v>
       </c>
       <c r="Y13" t="n">
-        <v>519.0061554834455</v>
+        <v>280.6622933431291</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>865.0734912662216</v>
+        <v>1577.466890709434</v>
       </c>
       <c r="C14" t="n">
-        <v>454.9489005794917</v>
+        <v>1167.342300022704</v>
       </c>
       <c r="D14" t="n">
-        <v>454.9489005794917</v>
+        <v>1167.342300022704</v>
       </c>
       <c r="E14" t="n">
-        <v>40.60868509638841</v>
+        <v>1167.342300022704</v>
       </c>
       <c r="F14" t="n">
-        <v>40.60868509638841</v>
+        <v>746.3118879763917</v>
       </c>
       <c r="G14" t="n">
-        <v>40.60868509638841</v>
+        <v>339.597618505245</v>
       </c>
       <c r="H14" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I14" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J14" t="n">
-        <v>135.553658593597</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K14" t="n">
-        <v>298.4006618101654</v>
+        <v>705.9280359432661</v>
       </c>
       <c r="L14" t="n">
-        <v>515.371982769831</v>
+        <v>922.8993569029316</v>
       </c>
       <c r="M14" t="n">
-        <v>787.9478227354612</v>
+        <v>1177.147879533289</v>
       </c>
       <c r="N14" t="n">
-        <v>1048.178944664052</v>
+        <v>1437.37900146188</v>
       </c>
       <c r="O14" t="n">
-        <v>1550.711422731859</v>
+        <v>1677.707089808</v>
       </c>
       <c r="P14" t="n">
-        <v>1741.852980600561</v>
+        <v>1868.848647676702</v>
       </c>
       <c r="Q14" t="n">
-        <v>1865.882367902809</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R14" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S14" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T14" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U14" t="n">
-        <v>1773.534884249812</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="V14" t="n">
-        <v>1675.938068761759</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="W14" t="n">
-        <v>1675.938068761759</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="X14" t="n">
-        <v>1275.294670930711</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="Y14" t="n">
-        <v>1275.294670930711</v>
+        <v>1577.466890709434</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>687.2060646415983</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C15" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D15" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E15" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F15" t="n">
-        <v>206.861139784769</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G15" t="n">
-        <v>100.9486199300693</v>
+        <v>100.9486199300691</v>
       </c>
       <c r="H15" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I15" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J15" t="n">
-        <v>89.53603285555947</v>
+        <v>220.4308468129452</v>
       </c>
       <c r="K15" t="n">
-        <v>204.8133672228701</v>
+        <v>335.7081811802558</v>
       </c>
       <c r="L15" t="n">
-        <v>378.5785985542112</v>
+        <v>509.473412511597</v>
       </c>
       <c r="M15" t="n">
-        <v>881.1110766220177</v>
+        <v>1012.005890579404</v>
       </c>
       <c r="N15" t="n">
-        <v>1103.136300299305</v>
+        <v>1514.53836864721</v>
       </c>
       <c r="O15" t="n">
-        <v>1605.668778367112</v>
+        <v>1708.649055108187</v>
       </c>
       <c r="P15" t="n">
-        <v>1753.629825523929</v>
+        <v>1856.610102265005</v>
       </c>
       <c r="Q15" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R15" t="n">
         <v>2030.43425481942</v>
@@ -5390,7 +5390,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U15" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V15" t="n">
         <v>1376.470207038133</v>
@@ -5399,10 +5399,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X15" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y15" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>597.2033682568047</v>
+        <v>778.7106026427015</v>
       </c>
       <c r="C16" t="n">
-        <v>597.2033682568047</v>
+        <v>607.617230204418</v>
       </c>
       <c r="D16" t="n">
-        <v>437.7087235797146</v>
+        <v>448.122585527328</v>
       </c>
       <c r="E16" t="n">
-        <v>437.7087235797146</v>
+        <v>448.122585527328</v>
       </c>
       <c r="F16" t="n">
-        <v>437.7087235797146</v>
+        <v>296.1334724116403</v>
       </c>
       <c r="G16" t="n">
-        <v>271.361750136047</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="H16" t="n">
         <v>129.7864989679727</v>
@@ -5436,52 +5436,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J16" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K16" t="n">
-        <v>309.7147646564052</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L16" t="n">
-        <v>701.2525880677155</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M16" t="n">
-        <v>1129.313329658761</v>
+        <v>849.3483437758122</v>
       </c>
       <c r="N16" t="n">
-        <v>1213.614220808944</v>
+        <v>1193.283917589609</v>
       </c>
       <c r="O16" t="n">
-        <v>1598.327696687862</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P16" t="n">
-        <v>1911.093034243219</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q16" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R16" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S16" t="n">
-        <v>1815.134815648408</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T16" t="n">
-        <v>1579.446133774845</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U16" t="n">
-        <v>1296.697263646284</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="V16" t="n">
-        <v>1296.697263646284</v>
+        <v>1520.859827885379</v>
       </c>
       <c r="W16" t="n">
-        <v>1017.627599155159</v>
+        <v>1241.790163394253</v>
       </c>
       <c r="X16" t="n">
-        <v>779.2837370148422</v>
+        <v>1003.446301253937</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.2837370148422</v>
+        <v>778.7106026427015</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1575.216551145227</v>
+        <v>1283.211494510333</v>
       </c>
       <c r="C17" t="n">
-        <v>1165.091960458497</v>
+        <v>873.0869038236027</v>
       </c>
       <c r="D17" t="n">
-        <v>760.6280305515575</v>
+        <v>468.6229739166632</v>
       </c>
       <c r="E17" t="n">
-        <v>760.6280305515575</v>
+        <v>468.6229739166632</v>
       </c>
       <c r="F17" t="n">
-        <v>339.597618505245</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="G17" t="n">
-        <v>339.597618505245</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="H17" t="n">
         <v>49.31514852411359</v>
@@ -5536,31 +5536,31 @@
         <v>1788.097100431331</v>
       </c>
       <c r="Q17" t="n">
-        <v>1992.87803497895</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R17" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S17" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T17" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U17" t="n">
-        <v>2030.43425481942</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="V17" t="n">
-        <v>2030.43425481942</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="W17" t="n">
-        <v>2030.43425481942</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="X17" t="n">
-        <v>2030.43425481942</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="Y17" t="n">
-        <v>1985.437730809716</v>
+        <v>1283.211494510333</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>687.2060646415983</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C18" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D18" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E18" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F18" t="n">
-        <v>206.861139784769</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G18" t="n">
         <v>100.9486199300691</v>
@@ -5606,16 +5606,16 @@
         <v>832.8623631258174</v>
       </c>
       <c r="N18" t="n">
-        <v>1294.086293517362</v>
+        <v>1054.887586803105</v>
       </c>
       <c r="O18" t="n">
-        <v>1796.618771585169</v>
+        <v>1248.998273264082</v>
       </c>
       <c r="P18" t="n">
-        <v>1944.579818741986</v>
+        <v>1751.530751331889</v>
       </c>
       <c r="Q18" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R18" t="n">
         <v>2030.43425481942</v>
@@ -5627,7 +5627,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U18" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V18" t="n">
         <v>1376.470207038133</v>
@@ -5636,10 +5636,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X18" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.2506646008039</v>
+        <v>631.8579707393326</v>
       </c>
       <c r="C19" t="n">
-        <v>763.2506646008039</v>
+        <v>460.764598301049</v>
       </c>
       <c r="D19" t="n">
-        <v>763.2506646008039</v>
+        <v>460.764598301049</v>
       </c>
       <c r="E19" t="n">
-        <v>602.3398494691234</v>
+        <v>460.764598301049</v>
       </c>
       <c r="F19" t="n">
-        <v>437.7087235797146</v>
+        <v>296.1334724116403</v>
       </c>
       <c r="G19" t="n">
-        <v>271.361750136047</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="H19" t="n">
         <v>129.7864989679727</v>
@@ -5673,52 +5673,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J19" t="n">
-        <v>117.2918156310919</v>
+        <v>52.29045199975552</v>
       </c>
       <c r="K19" t="n">
-        <v>374.7161282877416</v>
+        <v>103.4345710706911</v>
       </c>
       <c r="L19" t="n">
-        <v>766.2539516990519</v>
+        <v>494.9723944820013</v>
       </c>
       <c r="M19" t="n">
-        <v>849.3483437758122</v>
+        <v>923.0331360730472</v>
       </c>
       <c r="N19" t="n">
-        <v>1193.283917589609</v>
+        <v>1339.368328670815</v>
       </c>
       <c r="O19" t="n">
-        <v>1577.997393468527</v>
+        <v>1724.081804549733</v>
       </c>
       <c r="P19" t="n">
-        <v>1890.762731023884</v>
+        <v>2017.036691229721</v>
       </c>
       <c r="Q19" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R19" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S19" t="n">
-        <v>1964.330161031251</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T19" t="n">
-        <v>1728.641479157687</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U19" t="n">
-        <v>1728.641479157687</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="V19" t="n">
-        <v>1454.755734097209</v>
+        <v>1561.706902376054</v>
       </c>
       <c r="W19" t="n">
-        <v>1175.686069606083</v>
+        <v>1282.637237884929</v>
       </c>
       <c r="X19" t="n">
-        <v>1175.686069606083</v>
+        <v>1044.293375744612</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.9503709948483</v>
+        <v>819.557677133377</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1620.213075154931</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="C20" t="n">
-        <v>1210.088484468201</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="D20" t="n">
-        <v>1210.088484468201</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="E20" t="n">
-        <v>795.7482689850976</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="F20" t="n">
-        <v>374.7178569387852</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="G20" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="H20" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I20" t="n">
         <v>40.60868509638841</v>
@@ -5773,31 +5773,31 @@
         <v>1461.321273543602</v>
       </c>
       <c r="Q20" t="n">
-        <v>1865.882367902809</v>
+        <v>1963.853751611408</v>
       </c>
       <c r="R20" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S20" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T20" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U20" t="n">
-        <v>2030.43425481942</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V20" t="n">
-        <v>2030.43425481942</v>
+        <v>1120.920477914764</v>
       </c>
       <c r="W20" t="n">
-        <v>2030.43425481942</v>
+        <v>737.1601770499328</v>
       </c>
       <c r="X20" t="n">
-        <v>2030.43425481942</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="Y20" t="n">
-        <v>2030.43425481942</v>
+        <v>456.0294179952603</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>687.2060646415979</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C21" t="n">
-        <v>553.2109933905436</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D21" t="n">
         <v>436.3138356099362</v>
@@ -5819,7 +5819,7 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F21" t="n">
-        <v>206.8611397847687</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G21" t="n">
         <v>100.9486199300691</v>
@@ -5831,28 +5831,28 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J21" t="n">
-        <v>89.53603285555947</v>
+        <v>333.2044368301927</v>
       </c>
       <c r="K21" t="n">
-        <v>235.5606816038271</v>
+        <v>448.4817711975034</v>
       </c>
       <c r="L21" t="n">
-        <v>409.3259129351682</v>
+        <v>773.4759927661194</v>
       </c>
       <c r="M21" t="n">
-        <v>619.9412735321412</v>
+        <v>984.0913533630924</v>
       </c>
       <c r="N21" t="n">
-        <v>841.9664972094287</v>
+        <v>1206.11657704038</v>
       </c>
       <c r="O21" t="n">
-        <v>1036.077183670406</v>
+        <v>1708.649055108187</v>
       </c>
       <c r="P21" t="n">
-        <v>1538.609661738212</v>
+        <v>1856.610102265004</v>
       </c>
       <c r="Q21" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R21" t="n">
         <v>2030.43425481942</v>
@@ -5873,10 +5873,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X21" t="n">
-        <v>986.9110569133545</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.5090972771845</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>837.2969085321671</v>
+        <v>647.188790372434</v>
       </c>
       <c r="C22" t="n">
-        <v>666.2035360938836</v>
+        <v>476.0954179341505</v>
       </c>
       <c r="D22" t="n">
-        <v>621.6754134327296</v>
+        <v>316.6007732570606</v>
       </c>
       <c r="E22" t="n">
-        <v>460.764598301049</v>
+        <v>316.6007732570606</v>
       </c>
       <c r="F22" t="n">
-        <v>296.1334724116403</v>
+        <v>316.6007732570606</v>
       </c>
       <c r="G22" t="n">
-        <v>129.7864989679727</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H22" t="n">
         <v>129.7864989679727</v>
@@ -5910,22 +5910,22 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J22" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K22" t="n">
-        <v>309.7147646564052</v>
+        <v>344.5216036684401</v>
       </c>
       <c r="L22" t="n">
-        <v>701.2525880677155</v>
+        <v>736.0594270797503</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.313329658761</v>
+        <v>1164.120168670796</v>
       </c>
       <c r="N22" t="n">
-        <v>1319.557877795446</v>
+        <v>1580.455361268564</v>
       </c>
       <c r="O22" t="n">
-        <v>1704.271353674364</v>
+        <v>1965.168837147482</v>
       </c>
       <c r="P22" t="n">
         <v>2017.036691229721</v>
@@ -5934,28 +5934,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T22" t="n">
-        <v>1579.446133774845</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="U22" t="n">
-        <v>1579.446133774845</v>
+        <v>1577.037722009156</v>
       </c>
       <c r="V22" t="n">
-        <v>1579.446133774845</v>
+        <v>1577.037722009156</v>
       </c>
       <c r="W22" t="n">
-        <v>1300.376469283719</v>
+        <v>1297.96805751803</v>
       </c>
       <c r="X22" t="n">
-        <v>1062.032607143402</v>
+        <v>1059.624195377714</v>
       </c>
       <c r="Y22" t="n">
-        <v>837.2969085321671</v>
+        <v>834.8884967664784</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1645.453318444553</v>
+        <v>1312.49886074725</v>
       </c>
       <c r="C23" t="n">
-        <v>1645.453318444553</v>
+        <v>902.3742700605202</v>
       </c>
       <c r="D23" t="n">
-        <v>1240.989388537614</v>
+        <v>902.3742700605202</v>
       </c>
       <c r="E23" t="n">
-        <v>826.6491730545106</v>
+        <v>488.0340545774169</v>
       </c>
       <c r="F23" t="n">
-        <v>455.8406273899486</v>
+        <v>67.00364253110445</v>
       </c>
       <c r="G23" t="n">
-        <v>49.12635791880181</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="H23" t="n">
-        <v>49.12635791880181</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I23" t="n">
         <v>49.12635791880181</v>
@@ -6010,7 +6010,7 @@
         <v>1796.614773253744</v>
       </c>
       <c r="Q23" t="n">
-        <v>2291.766009023479</v>
+        <v>2330.938633706445</v>
       </c>
       <c r="R23" t="n">
         <v>2456.31789594009</v>
@@ -6025,16 +6025,16 @@
         <v>2456.31789594009</v>
       </c>
       <c r="V23" t="n">
-        <v>2456.31789594009</v>
+        <v>2106.480341276571</v>
       </c>
       <c r="W23" t="n">
-        <v>2456.31789594009</v>
+        <v>1722.72004041174</v>
       </c>
       <c r="X23" t="n">
-        <v>2055.674498109043</v>
+        <v>1722.72004041174</v>
       </c>
       <c r="Y23" t="n">
-        <v>2055.674498109043</v>
+        <v>1722.72004041174</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>49.12635791880181</v>
       </c>
       <c r="I24" t="n">
-        <v>49.12635791880181</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J24" t="n">
-        <v>98.05370567797287</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K24" t="n">
-        <v>544.6423102526476</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L24" t="n">
-        <v>718.4075415839886</v>
+        <v>646.79199654943</v>
       </c>
       <c r="M24" t="n">
-        <v>929.0229021809616</v>
+        <v>857.407357146403</v>
       </c>
       <c r="N24" t="n">
-        <v>1151.048125858249</v>
+        <v>1079.432580823691</v>
       </c>
       <c r="O24" t="n">
-        <v>1345.158812319226</v>
+        <v>1273.543267284668</v>
       </c>
       <c r="P24" t="n">
-        <v>1953.097491564399</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q24" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R24" t="n">
         <v>2038.951927641833</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.2629821003072</v>
+        <v>871.6032894989321</v>
       </c>
       <c r="C25" t="n">
-        <v>931.2629821003072</v>
+        <v>700.5099170606486</v>
       </c>
       <c r="D25" t="n">
-        <v>771.7683374232172</v>
+        <v>541.0152723835587</v>
       </c>
       <c r="E25" t="n">
-        <v>610.8575222915367</v>
+        <v>380.1044572518782</v>
       </c>
       <c r="F25" t="n">
-        <v>446.226396402128</v>
+        <v>215.4733313624694</v>
       </c>
       <c r="G25" t="n">
-        <v>279.8794229584604</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H25" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I25" t="n">
         <v>49.12635791880181</v>
       </c>
       <c r="J25" t="n">
-        <v>125.8094884535053</v>
+        <v>125.8094884535055</v>
       </c>
       <c r="K25" t="n">
-        <v>383.2338011101551</v>
+        <v>383.2338011101554</v>
       </c>
       <c r="L25" t="n">
-        <v>774.7716245214651</v>
+        <v>774.7716245214656</v>
       </c>
       <c r="M25" t="n">
         <v>1202.832366112511</v>
@@ -6171,28 +6171,28 @@
         <v>2456.31789594009</v>
       </c>
       <c r="R25" t="n">
-        <v>2411.666119450782</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S25" t="n">
-        <v>2241.018456769079</v>
+        <v>2285.670233258386</v>
       </c>
       <c r="T25" t="n">
-        <v>2241.018456769079</v>
+        <v>2075.337966196132</v>
       </c>
       <c r="U25" t="n">
-        <v>1958.269586640518</v>
+        <v>2075.337966196132</v>
       </c>
       <c r="V25" t="n">
-        <v>1861.111913737029</v>
+        <v>1801.452221135654</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.042249245903</v>
+        <v>1522.382556644528</v>
       </c>
       <c r="X25" t="n">
-        <v>1343.698387105587</v>
+        <v>1284.038694504212</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.962688494352</v>
+        <v>1059.302995892976</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1431.769908239732</v>
+        <v>762.4004203395557</v>
       </c>
       <c r="C26" t="n">
-        <v>1021.645317553002</v>
+        <v>762.4004203395557</v>
       </c>
       <c r="D26" t="n">
-        <v>1021.645317553002</v>
+        <v>762.4004203395557</v>
       </c>
       <c r="E26" t="n">
-        <v>1021.645317553002</v>
+        <v>762.4004203395557</v>
       </c>
       <c r="F26" t="n">
-        <v>600.6149055066895</v>
+        <v>341.3700082932432</v>
       </c>
       <c r="G26" t="n">
-        <v>348.1152913276584</v>
+        <v>341.3700082932432</v>
       </c>
       <c r="H26" t="n">
         <v>57.83282134652699</v>
@@ -6229,49 +6229,49 @@
         <v>470.8471583037395</v>
       </c>
       <c r="K26" t="n">
-        <v>633.6941615203079</v>
+        <v>1004.816009987795</v>
       </c>
       <c r="L26" t="n">
-        <v>850.6654824799734</v>
+        <v>1221.78733094746</v>
       </c>
       <c r="M26" t="n">
-        <v>1192.737047503507</v>
+        <v>1476.035853577818</v>
       </c>
       <c r="N26" t="n">
-        <v>1452.968169432098</v>
+        <v>1736.266975506409</v>
       </c>
       <c r="O26" t="n">
-        <v>1693.296257778217</v>
+        <v>1976.595063852528</v>
       </c>
       <c r="P26" t="n">
-        <v>1884.43781564692</v>
+        <v>2167.736621721231</v>
       </c>
       <c r="Q26" t="n">
-        <v>2418.76167609962</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R26" t="n">
         <v>2456.31789594009</v>
       </c>
       <c r="S26" t="n">
-        <v>2456.31789594009</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="T26" t="n">
-        <v>2242.927760956131</v>
+        <v>2153.541044268562</v>
       </c>
       <c r="U26" t="n">
-        <v>2242.927760956131</v>
+        <v>1896.641673698954</v>
       </c>
       <c r="V26" t="n">
-        <v>2242.927760956131</v>
+        <v>1546.804119035434</v>
       </c>
       <c r="W26" t="n">
-        <v>2242.927760956131</v>
+        <v>1163.043818170603</v>
       </c>
       <c r="X26" t="n">
-        <v>2242.927760956131</v>
+        <v>762.4004203395557</v>
       </c>
       <c r="Y26" t="n">
-        <v>1841.991087904221</v>
+        <v>762.4004203395557</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J27" t="n">
-        <v>98.05370567797287</v>
+        <v>341.7221096526062</v>
       </c>
       <c r="K27" t="n">
-        <v>213.3310400452835</v>
+        <v>510.6800688602472</v>
       </c>
       <c r="L27" t="n">
-        <v>387.0962713766246</v>
+        <v>684.4453001915883</v>
       </c>
       <c r="M27" t="n">
-        <v>597.7116319735976</v>
+        <v>895.0606607885613</v>
       </c>
       <c r="N27" t="n">
-        <v>1109.228048685428</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O27" t="n">
-        <v>1717.1667279306</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P27" t="n">
-        <v>1865.127775087417</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q27" t="n">
         <v>1943.818542168665</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>797.9158925608807</v>
+        <v>1102.356354538591</v>
       </c>
       <c r="C28" t="n">
-        <v>626.8225201225972</v>
+        <v>931.2629821003072</v>
       </c>
       <c r="D28" t="n">
-        <v>467.3278754455072</v>
+        <v>771.7683374232172</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5105488478691</v>
+        <v>610.8575222915367</v>
       </c>
       <c r="F28" t="n">
-        <v>279.8794229584604</v>
+        <v>446.226396402128</v>
       </c>
       <c r="G28" t="n">
         <v>279.8794229584604</v>
@@ -6384,13 +6384,13 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J28" t="n">
-        <v>125.8094884535053</v>
+        <v>125.8094884535055</v>
       </c>
       <c r="K28" t="n">
-        <v>383.233801110155</v>
+        <v>383.2338011101552</v>
       </c>
       <c r="L28" t="n">
-        <v>774.7716245214652</v>
+        <v>774.7716245214655</v>
       </c>
       <c r="M28" t="n">
         <v>1202.832366112511</v>
@@ -6408,28 +6408,28 @@
         <v>2456.31789594009</v>
       </c>
       <c r="R28" t="n">
-        <v>2411.666119450782</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S28" t="n">
-        <v>2241.018456769079</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="T28" t="n">
-        <v>2005.329774895515</v>
+        <v>2220.629214066527</v>
       </c>
       <c r="U28" t="n">
-        <v>1722.580904766955</v>
+        <v>2220.629214066527</v>
       </c>
       <c r="V28" t="n">
-        <v>1448.695159706477</v>
+        <v>1946.743469006049</v>
       </c>
       <c r="W28" t="n">
-        <v>1448.695159706477</v>
+        <v>1753.135621684187</v>
       </c>
       <c r="X28" t="n">
-        <v>1210.35129756616</v>
+        <v>1514.79175954387</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.6155989549251</v>
+        <v>1290.056060932635</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1004.500371789251</v>
+        <v>1278.055093995575</v>
       </c>
       <c r="C29" t="n">
-        <v>594.3757811025213</v>
+        <v>867.9305033088447</v>
       </c>
       <c r="D29" t="n">
-        <v>189.9118511955818</v>
+        <v>463.4665734019051</v>
       </c>
       <c r="E29" t="n">
-        <v>189.9118511955818</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="F29" t="n">
-        <v>189.9118511955818</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="G29" t="n">
-        <v>189.9118511955818</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H29" t="n">
         <v>49.12635791880181</v>
@@ -6469,16 +6469,16 @@
         <v>633.6941615203079</v>
       </c>
       <c r="L29" t="n">
-        <v>1221.78733094746</v>
+        <v>850.6654824799734</v>
       </c>
       <c r="M29" t="n">
-        <v>1476.035853577818</v>
+        <v>1104.914005110331</v>
       </c>
       <c r="N29" t="n">
-        <v>1736.266975506409</v>
+        <v>1365.145127038922</v>
       </c>
       <c r="O29" t="n">
-        <v>1976.595063852528</v>
+        <v>1605.473215385042</v>
       </c>
       <c r="P29" t="n">
         <v>2167.736621721231</v>
@@ -6496,19 +6496,19 @@
         <v>2456.31789594009</v>
       </c>
       <c r="U29" t="n">
-        <v>2199.418525370482</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="V29" t="n">
-        <v>2199.418525370482</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="W29" t="n">
-        <v>1815.65822450565</v>
+        <v>2088.919671491112</v>
       </c>
       <c r="X29" t="n">
-        <v>1815.65822450565</v>
+        <v>1688.276273660064</v>
       </c>
       <c r="Y29" t="n">
-        <v>1414.721551453741</v>
+        <v>1688.276273660064</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>341.7221096526062</v>
       </c>
       <c r="K30" t="n">
-        <v>949.6607888977785</v>
+        <v>456.9994440199168</v>
       </c>
       <c r="L30" t="n">
-        <v>1123.42602022912</v>
+        <v>630.764675351258</v>
       </c>
       <c r="M30" t="n">
-        <v>1334.041380826093</v>
+        <v>841.3800359482309</v>
       </c>
       <c r="N30" t="n">
-        <v>1611.025757946604</v>
+        <v>1063.405259625519</v>
       </c>
       <c r="O30" t="n">
-        <v>1805.136444407581</v>
+        <v>1257.515946086496</v>
       </c>
       <c r="P30" t="n">
-        <v>1953.097491564399</v>
+        <v>1865.127775087417</v>
       </c>
       <c r="Q30" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R30" t="n">
         <v>2038.951927641833</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>937.7252286491821</v>
+        <v>547.4775189324334</v>
       </c>
       <c r="C31" t="n">
-        <v>766.6318562108986</v>
+        <v>376.3841464941499</v>
       </c>
       <c r="D31" t="n">
-        <v>607.1372115338086</v>
+        <v>376.3841464941499</v>
       </c>
       <c r="E31" t="n">
-        <v>446.226396402128</v>
+        <v>215.4733313624694</v>
       </c>
       <c r="F31" t="n">
-        <v>446.226396402128</v>
+        <v>215.4733313624694</v>
       </c>
       <c r="G31" t="n">
-        <v>279.8794229584604</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H31" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I31" t="n">
         <v>49.12635791880181</v>
@@ -6624,10 +6624,10 @@
         <v>125.8094884535053</v>
       </c>
       <c r="K31" t="n">
-        <v>383.2338011101549</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L31" t="n">
-        <v>774.7716245214651</v>
+        <v>774.7716245214652</v>
       </c>
       <c r="M31" t="n">
         <v>1202.832366112511</v>
@@ -6645,28 +6645,28 @@
         <v>2456.31789594009</v>
       </c>
       <c r="R31" t="n">
-        <v>2411.666119450782</v>
+        <v>2440.297410313461</v>
       </c>
       <c r="S31" t="n">
-        <v>2241.018456769079</v>
+        <v>2269.649747631757</v>
       </c>
       <c r="T31" t="n">
-        <v>2005.329774895515</v>
+        <v>2033.961065758194</v>
       </c>
       <c r="U31" t="n">
-        <v>1722.580904766955</v>
+        <v>1751.212195629633</v>
       </c>
       <c r="V31" t="n">
-        <v>1448.695159706477</v>
+        <v>1477.326450569155</v>
       </c>
       <c r="W31" t="n">
-        <v>1169.625495215351</v>
+        <v>1198.25678607803</v>
       </c>
       <c r="X31" t="n">
-        <v>1125.424935043226</v>
+        <v>959.9129239377131</v>
       </c>
       <c r="Y31" t="n">
-        <v>1125.424935043226</v>
+        <v>735.1772253264778</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1153.997348493603</v>
+        <v>1956.709999588031</v>
       </c>
       <c r="C32" t="n">
-        <v>743.8727578068728</v>
+        <v>1546.585408901301</v>
       </c>
       <c r="D32" t="n">
-        <v>339.4088278999333</v>
+        <v>1142.121478994362</v>
       </c>
       <c r="E32" t="n">
-        <v>339.4088278999333</v>
+        <v>727.7812635112587</v>
       </c>
       <c r="F32" t="n">
-        <v>339.4088278999333</v>
+        <v>306.7508514649462</v>
       </c>
       <c r="G32" t="n">
-        <v>339.4088278999333</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H32" t="n">
         <v>49.12635791880181</v>
@@ -6700,25 +6700,25 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J32" t="n">
-        <v>144.0713314160104</v>
+        <v>470.8471583037395</v>
       </c>
       <c r="K32" t="n">
-        <v>306.9183346325789</v>
+        <v>633.6941615203079</v>
       </c>
       <c r="L32" t="n">
-        <v>523.8896555922444</v>
+        <v>850.6654824799734</v>
       </c>
       <c r="M32" t="n">
-        <v>778.1381782226022</v>
+        <v>1104.914005110331</v>
       </c>
       <c r="N32" t="n">
-        <v>1038.369300151193</v>
+        <v>1365.145127038922</v>
       </c>
       <c r="O32" t="n">
-        <v>1559.797942476058</v>
+        <v>1605.473215385042</v>
       </c>
       <c r="P32" t="n">
-        <v>2167.736621721231</v>
+        <v>1796.614773253744</v>
       </c>
       <c r="Q32" t="n">
         <v>2291.766009023479</v>
@@ -6727,25 +6727,25 @@
         <v>2456.31789594009</v>
       </c>
       <c r="S32" t="n">
-        <v>2456.31789594009</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="T32" t="n">
-        <v>2348.622226853971</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="U32" t="n">
-        <v>2348.622226853971</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="V32" t="n">
-        <v>2348.622226853971</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="W32" t="n">
-        <v>1964.86192598914</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="X32" t="n">
-        <v>1564.218528158092</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1564.218528158092</v>
+        <v>2366.931179252521</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>65.15367911697383</v>
       </c>
       <c r="J33" t="n">
-        <v>114.0810268761449</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K33" t="n">
-        <v>229.3583612434555</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L33" t="n">
-        <v>403.1235925747966</v>
+        <v>646.79199654943</v>
       </c>
       <c r="M33" t="n">
-        <v>613.7389531717696</v>
+        <v>857.407357146403</v>
       </c>
       <c r="N33" t="n">
-        <v>835.7641768490571</v>
+        <v>1079.432580823691</v>
       </c>
       <c r="O33" t="n">
-        <v>1399.166287403808</v>
+        <v>1273.543267284668</v>
       </c>
       <c r="P33" t="n">
-        <v>1547.127334560625</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q33" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R33" t="n">
         <v>2038.951927641833</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1102.356354538591</v>
+        <v>563.4980045590629</v>
       </c>
       <c r="C34" t="n">
-        <v>931.2629821003072</v>
+        <v>392.4046321207794</v>
       </c>
       <c r="D34" t="n">
-        <v>771.7683374232172</v>
+        <v>392.4046321207794</v>
       </c>
       <c r="E34" t="n">
-        <v>610.8575222915367</v>
+        <v>304.6511452340537</v>
       </c>
       <c r="F34" t="n">
-        <v>446.226396402128</v>
+        <v>304.6511452340537</v>
       </c>
       <c r="G34" t="n">
-        <v>279.8794229584604</v>
+        <v>138.3041717903861</v>
       </c>
       <c r="H34" t="n">
         <v>138.3041717903861</v>
@@ -6864,7 +6864,7 @@
         <v>383.233801110155</v>
       </c>
       <c r="L34" t="n">
-        <v>774.7716245214651</v>
+        <v>774.7716245214652</v>
       </c>
       <c r="M34" t="n">
         <v>1202.832366112511</v>
@@ -6885,25 +6885,25 @@
         <v>2456.31789594009</v>
       </c>
       <c r="S34" t="n">
-        <v>2456.31789594009</v>
+        <v>2285.670233258386</v>
       </c>
       <c r="T34" t="n">
-        <v>2456.31789594009</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.56902581153</v>
+        <v>1767.232681256263</v>
       </c>
       <c r="V34" t="n">
-        <v>2032.205286175312</v>
+        <v>1493.346936195785</v>
       </c>
       <c r="W34" t="n">
-        <v>1753.135621684187</v>
+        <v>1214.277271704659</v>
       </c>
       <c r="X34" t="n">
-        <v>1514.79175954387</v>
+        <v>975.9334095643426</v>
       </c>
       <c r="Y34" t="n">
-        <v>1290.056060932635</v>
+        <v>751.1977109531073</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>871.7636878294308</v>
+        <v>1005.886267119062</v>
       </c>
       <c r="C35" t="n">
-        <v>461.6390971427008</v>
+        <v>746.3118879763917</v>
       </c>
       <c r="D35" t="n">
-        <v>461.6390971427008</v>
+        <v>746.3118879763917</v>
       </c>
       <c r="E35" t="n">
-        <v>461.6390971427008</v>
+        <v>746.3118879763917</v>
       </c>
       <c r="F35" t="n">
-        <v>40.60868509638841</v>
+        <v>746.3118879763917</v>
       </c>
       <c r="G35" t="n">
-        <v>40.60868509638841</v>
+        <v>339.597618505245</v>
       </c>
       <c r="H35" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I35" t="n">
         <v>40.60868509638841</v>
@@ -6943,22 +6943,22 @@
         <v>298.4006618101654</v>
       </c>
       <c r="L35" t="n">
-        <v>515.371982769831</v>
+        <v>533.6993001051032</v>
       </c>
       <c r="M35" t="n">
-        <v>769.6205054001888</v>
+        <v>787.947822735461</v>
       </c>
       <c r="N35" t="n">
-        <v>1029.85162732878</v>
+        <v>1048.178944664052</v>
       </c>
       <c r="O35" t="n">
-        <v>1270.179715674899</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P35" t="n">
-        <v>1772.712193742706</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q35" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R35" t="n">
         <v>2030.43425481942</v>
@@ -6967,22 +6967,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T35" t="n">
-        <v>2030.43425481942</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="U35" t="n">
-        <v>2030.43425481942</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="V35" t="n">
-        <v>2030.43425481942</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="W35" t="n">
-        <v>2030.43425481942</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="X35" t="n">
-        <v>1629.790856988373</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="Y35" t="n">
-        <v>1228.854183936463</v>
+        <v>1416.107446783551</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F36" t="n">
-        <v>206.8611397847687</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G36" t="n">
-        <v>100.9486199300693</v>
+        <v>100.9486199300691</v>
       </c>
       <c r="H36" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I36" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J36" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K36" t="n">
-        <v>835.7369148979992</v>
+        <v>851.7642360961713</v>
       </c>
       <c r="L36" t="n">
-        <v>1009.50214622934</v>
+        <v>1025.529467427512</v>
       </c>
       <c r="M36" t="n">
-        <v>1220.117506826313</v>
+        <v>1236.144828024485</v>
       </c>
       <c r="N36" t="n">
-        <v>1442.142730503601</v>
+        <v>1458.170051701773</v>
       </c>
       <c r="O36" t="n">
-        <v>1708.649055108187</v>
+        <v>1652.28073816275</v>
       </c>
       <c r="P36" t="n">
-        <v>1856.610102265005</v>
+        <v>1800.241785319567</v>
       </c>
       <c r="Q36" t="n">
-        <v>1935.300869346252</v>
+        <v>2023.270585823234</v>
       </c>
       <c r="R36" t="n">
         <v>2030.43425481942</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>591.7672099448175</v>
+        <v>838.7910178291968</v>
       </c>
       <c r="C37" t="n">
-        <v>591.7672099448175</v>
+        <v>838.7910178291968</v>
       </c>
       <c r="D37" t="n">
-        <v>432.2725652677275</v>
+        <v>679.2963731521068</v>
       </c>
       <c r="E37" t="n">
-        <v>271.361750136047</v>
+        <v>602.3398494691234</v>
       </c>
       <c r="F37" t="n">
-        <v>271.361750136047</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="G37" t="n">
         <v>271.361750136047</v>
@@ -7098,19 +7098,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K37" t="n">
-        <v>168.4359347020275</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L37" t="n">
-        <v>559.9737581133377</v>
+        <v>452.2748404640288</v>
       </c>
       <c r="M37" t="n">
-        <v>988.0344997043835</v>
+        <v>880.3355820550746</v>
       </c>
       <c r="N37" t="n">
-        <v>1404.369692302151</v>
+        <v>1296.670774652843</v>
       </c>
       <c r="O37" t="n">
-        <v>1577.997393468527</v>
+        <v>1681.384250531761</v>
       </c>
       <c r="P37" t="n">
         <v>1890.762731023884</v>
@@ -7128,19 +7128,19 @@
         <v>1579.446133774845</v>
       </c>
       <c r="U37" t="n">
-        <v>1332.422325890466</v>
+        <v>1579.446133774845</v>
       </c>
       <c r="V37" t="n">
-        <v>1058.536580829988</v>
+        <v>1305.560388714367</v>
       </c>
       <c r="W37" t="n">
-        <v>779.4669163388619</v>
+        <v>1026.490724223241</v>
       </c>
       <c r="X37" t="n">
-        <v>779.4669163388619</v>
+        <v>1026.490724223241</v>
       </c>
       <c r="Y37" t="n">
-        <v>779.4669163388619</v>
+        <v>1026.490724223241</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>895.8997262391596</v>
+        <v>612.832752090756</v>
       </c>
       <c r="C38" t="n">
-        <v>485.7751355524297</v>
+        <v>612.832752090756</v>
       </c>
       <c r="D38" t="n">
-        <v>485.7751355524297</v>
+        <v>612.832752090756</v>
       </c>
       <c r="E38" t="n">
-        <v>485.7751355524297</v>
+        <v>612.832752090756</v>
       </c>
       <c r="F38" t="n">
-        <v>64.74472350611723</v>
+        <v>612.832752090756</v>
       </c>
       <c r="G38" t="n">
-        <v>40.60868509638841</v>
+        <v>206.1184826196093</v>
       </c>
       <c r="H38" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I38" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J38" t="n">
-        <v>462.3294854813261</v>
+        <v>135.553658593597</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1764886978946</v>
+        <v>298.4006618101654</v>
       </c>
       <c r="L38" t="n">
-        <v>842.1478096575601</v>
+        <v>674.6154014654826</v>
       </c>
       <c r="M38" t="n">
-        <v>1096.396332287918</v>
+        <v>1177.147879533289</v>
       </c>
       <c r="N38" t="n">
-        <v>1356.627454216509</v>
+        <v>1437.37900146188</v>
       </c>
       <c r="O38" t="n">
-        <v>1596.955542562628</v>
+        <v>1677.707089808</v>
       </c>
       <c r="P38" t="n">
-        <v>1788.097100431331</v>
+        <v>1868.848647676702</v>
       </c>
       <c r="Q38" t="n">
-        <v>1912.126487733579</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R38" t="n">
         <v>2030.43425481942</v>
@@ -7207,19 +7207,19 @@
         <v>2030.43425481942</v>
       </c>
       <c r="U38" t="n">
-        <v>2030.43425481942</v>
+        <v>1773.534884249812</v>
       </c>
       <c r="V38" t="n">
-        <v>1680.596700155901</v>
+        <v>1423.697329586293</v>
       </c>
       <c r="W38" t="n">
-        <v>1296.836399291069</v>
+        <v>1423.697329586293</v>
       </c>
       <c r="X38" t="n">
-        <v>1296.836399291069</v>
+        <v>1023.053931755245</v>
       </c>
       <c r="Y38" t="n">
-        <v>895.8997262391596</v>
+        <v>1023.053931755245</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>315.8210196022644</v>
       </c>
       <c r="F39" t="n">
-        <v>206.8611397847688</v>
+        <v>206.861139784769</v>
       </c>
       <c r="G39" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H39" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I39" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J39" t="n">
-        <v>333.2044368301927</v>
+        <v>308.4005632899263</v>
       </c>
       <c r="K39" t="n">
-        <v>448.4817711975033</v>
+        <v>423.6778976572369</v>
       </c>
       <c r="L39" t="n">
-        <v>622.2470025288444</v>
+        <v>597.4431289885781</v>
       </c>
       <c r="M39" t="n">
-        <v>832.8623631258174</v>
+        <v>1099.975607056385</v>
       </c>
       <c r="N39" t="n">
-        <v>1108.568211643436</v>
+        <v>1602.508085124191</v>
       </c>
       <c r="O39" t="n">
-        <v>1302.678898104414</v>
+        <v>1796.618771585168</v>
       </c>
       <c r="P39" t="n">
-        <v>1450.639945261231</v>
+        <v>1944.579818741986</v>
       </c>
       <c r="Q39" t="n">
-        <v>1935.300869346252</v>
+        <v>2023.270585823234</v>
       </c>
       <c r="R39" t="n">
         <v>2030.43425481942</v>
@@ -7289,7 +7289,7 @@
         <v>1590.1817340451</v>
       </c>
       <c r="V39" t="n">
-        <v>1376.470207038133</v>
+        <v>1376.470207038134</v>
       </c>
       <c r="W39" t="n">
         <v>1163.237038774462</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>843.7500527129125</v>
+        <v>378.0490309783395</v>
       </c>
       <c r="C40" t="n">
-        <v>672.656680274629</v>
+        <v>206.955658540056</v>
       </c>
       <c r="D40" t="n">
-        <v>513.162035597539</v>
+        <v>206.955658540056</v>
       </c>
       <c r="E40" t="n">
-        <v>513.162035597539</v>
+        <v>206.955658540056</v>
       </c>
       <c r="F40" t="n">
-        <v>348.5309097081303</v>
+        <v>206.955658540056</v>
       </c>
       <c r="G40" t="n">
-        <v>182.1839362644627</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H40" t="n">
         <v>40.60868509638841</v>
@@ -7332,52 +7332,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J40" t="n">
-        <v>117.2918156310919</v>
+        <v>52.29045199975553</v>
       </c>
       <c r="K40" t="n">
-        <v>168.4359347020275</v>
+        <v>103.4345710706911</v>
       </c>
       <c r="L40" t="n">
-        <v>559.9737581133377</v>
+        <v>494.9723944820013</v>
       </c>
       <c r="M40" t="n">
-        <v>988.0344997043835</v>
+        <v>923.0331360730472</v>
       </c>
       <c r="N40" t="n">
-        <v>1404.369692302151</v>
+        <v>1339.368328670815</v>
       </c>
       <c r="O40" t="n">
-        <v>1789.08316818107</v>
+        <v>1724.081804549733</v>
       </c>
       <c r="P40" t="n">
-        <v>1890.762731023884</v>
+        <v>2017.036691229721</v>
       </c>
       <c r="Q40" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S40" t="n">
-        <v>1985.782478330112</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T40" t="n">
-        <v>1750.093796456549</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U40" t="n">
-        <v>1750.093796456549</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="V40" t="n">
-        <v>1476.208051396071</v>
+        <v>1067.463295075115</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.208051396071</v>
+        <v>841.1285917298915</v>
       </c>
       <c r="X40" t="n">
-        <v>1237.864189255754</v>
+        <v>602.7847295895748</v>
       </c>
       <c r="Y40" t="n">
-        <v>1013.128490644519</v>
+        <v>378.0490309783395</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>760.6280305515575</v>
+        <v>1158.635836594979</v>
       </c>
       <c r="C41" t="n">
-        <v>760.6280305515575</v>
+        <v>1158.635836594979</v>
       </c>
       <c r="D41" t="n">
-        <v>760.6280305515575</v>
+        <v>1158.635836594979</v>
       </c>
       <c r="E41" t="n">
-        <v>760.6280305515575</v>
+        <v>1158.635836594979</v>
       </c>
       <c r="F41" t="n">
-        <v>339.597618505245</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="G41" t="n">
-        <v>339.597618505245</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="H41" t="n">
-        <v>49.31514852411359</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I41" t="n">
         <v>40.60868509638841</v>
@@ -7417,19 +7417,19 @@
         <v>298.4006618101654</v>
       </c>
       <c r="L41" t="n">
-        <v>515.371982769831</v>
+        <v>795.9036898267901</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.904460837638</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N41" t="n">
-        <v>1278.135582766228</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O41" t="n">
-        <v>1518.463671112348</v>
+        <v>1550.711422731858</v>
       </c>
       <c r="P41" t="n">
-        <v>1709.60522898105</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q41" t="n">
         <v>1865.882367902809</v>
@@ -7438,25 +7438,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S41" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T41" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U41" t="n">
-        <v>2030.43425481942</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V41" t="n">
-        <v>1955.546184132788</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="W41" t="n">
-        <v>1571.785883267957</v>
+        <v>1158.635836594979</v>
       </c>
       <c r="X41" t="n">
-        <v>1571.785883267957</v>
+        <v>1158.635836594979</v>
       </c>
       <c r="Y41" t="n">
-        <v>1170.849210216047</v>
+        <v>1158.635836594979</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.206064641598</v>
+        <v>687.2060646415983</v>
       </c>
       <c r="C42" t="n">
-        <v>553.2109933905438</v>
+        <v>553.210993390544</v>
       </c>
       <c r="D42" t="n">
-        <v>436.3138356099362</v>
+        <v>436.3138356099364</v>
       </c>
       <c r="E42" t="n">
-        <v>315.8210196022642</v>
+        <v>315.8210196022644</v>
       </c>
       <c r="F42" t="n">
-        <v>206.8611397847688</v>
+        <v>206.861139784769</v>
       </c>
       <c r="G42" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H42" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I42" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J42" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K42" t="n">
-        <v>448.4817711975033</v>
+        <v>502.1623960378344</v>
       </c>
       <c r="L42" t="n">
-        <v>622.2470025288444</v>
+        <v>675.9276273691755</v>
       </c>
       <c r="M42" t="n">
-        <v>832.8623631258174</v>
+        <v>886.5429879661485</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.394841193624</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O42" t="n">
-        <v>1529.505527654601</v>
+        <v>1302.678898104413</v>
       </c>
       <c r="P42" t="n">
-        <v>1677.466574811418</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q42" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R42" t="n">
         <v>2030.43425481942</v>
@@ -7523,7 +7523,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U42" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V42" t="n">
         <v>1376.470207038133</v>
@@ -7532,10 +7532,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X42" t="n">
-        <v>986.9110569133546</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.5090972771847</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>537.4959946912667</v>
+        <v>686.9986378983964</v>
       </c>
       <c r="C43" t="n">
-        <v>366.4026222529832</v>
+        <v>686.9986378983964</v>
       </c>
       <c r="D43" t="n">
-        <v>206.9079775758932</v>
+        <v>527.5039932213065</v>
       </c>
       <c r="E43" t="n">
-        <v>206.9079775758932</v>
+        <v>366.593178089626</v>
       </c>
       <c r="F43" t="n">
-        <v>129.7864989679727</v>
+        <v>366.593178089626</v>
       </c>
       <c r="G43" t="n">
-        <v>129.7864989679727</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H43" t="n">
         <v>129.7864989679727</v>
@@ -7569,25 +7569,25 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J43" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K43" t="n">
-        <v>309.7147646564052</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L43" t="n">
-        <v>701.2525880677155</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M43" t="n">
-        <v>1129.313329658761</v>
+        <v>849.3483437758122</v>
       </c>
       <c r="N43" t="n">
-        <v>1545.648522256529</v>
+        <v>1193.283917589609</v>
       </c>
       <c r="O43" t="n">
-        <v>1704.271353674364</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P43" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q43" t="n">
         <v>2030.43425481942</v>
@@ -7599,22 +7599,22 @@
         <v>1985.782478330112</v>
       </c>
       <c r="T43" t="n">
-        <v>1750.093796456549</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="U43" t="n">
-        <v>1467.344926327989</v>
+        <v>1703.033608201552</v>
       </c>
       <c r="V43" t="n">
-        <v>1467.344926327989</v>
+        <v>1429.147863141074</v>
       </c>
       <c r="W43" t="n">
-        <v>1188.275261836863</v>
+        <v>1150.078198649948</v>
       </c>
       <c r="X43" t="n">
-        <v>949.9313996965464</v>
+        <v>911.7343365096317</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.195701085311</v>
+        <v>686.9986378983964</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>962.6703067542751</v>
+        <v>1317.436223483402</v>
       </c>
       <c r="C44" t="n">
-        <v>962.6703067542751</v>
+        <v>907.3116327966724</v>
       </c>
       <c r="D44" t="n">
-        <v>868.3533666138476</v>
+        <v>502.8477028897329</v>
       </c>
       <c r="E44" t="n">
-        <v>868.3533666138476</v>
+        <v>447.3229545675351</v>
       </c>
       <c r="F44" t="n">
         <v>447.3229545675351</v>
@@ -7648,52 +7648,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J44" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505561</v>
       </c>
       <c r="K44" t="n">
-        <v>638.0861366614034</v>
+        <v>578.9323688671246</v>
       </c>
       <c r="L44" t="n">
-        <v>922.8993569029313</v>
+        <v>795.9036898267901</v>
       </c>
       <c r="M44" t="n">
-        <v>1177.147879533289</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N44" t="n">
-        <v>1437.37900146188</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O44" t="n">
-        <v>1677.707089808</v>
+        <v>1550.711422731858</v>
       </c>
       <c r="P44" t="n">
-        <v>1868.848647676702</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q44" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R44" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S44" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T44" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U44" t="n">
-        <v>1773.534884249812</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="V44" t="n">
-        <v>1773.534884249812</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="W44" t="n">
-        <v>1773.534884249812</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="X44" t="n">
-        <v>1372.891486418765</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="Y44" t="n">
-        <v>1372.891486418765</v>
+        <v>1727.657403147892</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>687.206064641598</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C45" t="n">
-        <v>553.2109933905438</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D45" t="n">
         <v>436.3138356099362</v>
@@ -7715,7 +7715,7 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F45" t="n">
-        <v>206.8611397847688</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G45" t="n">
         <v>100.9486199300691</v>
@@ -7724,31 +7724,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I45" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J45" t="n">
-        <v>89.53603285555947</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K45" t="n">
-        <v>590.1321125148161</v>
+        <v>502.1623960378344</v>
       </c>
       <c r="L45" t="n">
-        <v>763.8973438461571</v>
+        <v>675.9276273691755</v>
       </c>
       <c r="M45" t="n">
-        <v>974.5127044431301</v>
+        <v>886.5429879661485</v>
       </c>
       <c r="N45" t="n">
-        <v>1196.537928120418</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O45" t="n">
-        <v>1390.648614581395</v>
+        <v>1302.678898104413</v>
       </c>
       <c r="P45" t="n">
-        <v>1538.609661738212</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q45" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R45" t="n">
         <v>2030.43425481942</v>
@@ -7769,10 +7769,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X45" t="n">
-        <v>986.9110569133546</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y45" t="n">
-        <v>827.5090972771847</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.2075558267686</v>
+        <v>519.0061554834455</v>
       </c>
       <c r="C46" t="n">
-        <v>758.1141833884851</v>
+        <v>519.0061554834455</v>
       </c>
       <c r="D46" t="n">
-        <v>598.6195387113951</v>
+        <v>432.2725652677275</v>
       </c>
       <c r="E46" t="n">
-        <v>437.7087235797146</v>
+        <v>271.361750136047</v>
       </c>
       <c r="F46" t="n">
-        <v>437.7087235797146</v>
+        <v>271.361750136047</v>
       </c>
       <c r="G46" t="n">
         <v>271.361750136047</v>
@@ -7806,25 +7806,25 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J46" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K46" t="n">
-        <v>218.247643462603</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L46" t="n">
-        <v>609.7854668739133</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M46" t="n">
-        <v>1037.846208464959</v>
+        <v>1194.314693290098</v>
       </c>
       <c r="N46" t="n">
-        <v>1454.181401062727</v>
+        <v>1610.649885887866</v>
       </c>
       <c r="O46" t="n">
-        <v>1838.894876941645</v>
+        <v>1704.271353674364</v>
       </c>
       <c r="P46" t="n">
-        <v>1890.762731023884</v>
+        <v>2017.036691229721</v>
       </c>
       <c r="Q46" t="n">
         <v>2030.43425481942</v>
@@ -7833,25 +7833,25 @@
         <v>1985.782478330112</v>
       </c>
       <c r="S46" t="n">
-        <v>1948.921731767359</v>
+        <v>1815.134815648408</v>
       </c>
       <c r="T46" t="n">
-        <v>1948.921731767359</v>
+        <v>1579.446133774845</v>
       </c>
       <c r="U46" t="n">
-        <v>1666.172861638798</v>
+        <v>1296.697263646284</v>
       </c>
       <c r="V46" t="n">
-        <v>1392.28711657832</v>
+        <v>1022.811518585806</v>
       </c>
       <c r="W46" t="n">
-        <v>1392.28711657832</v>
+        <v>743.7418540946808</v>
       </c>
       <c r="X46" t="n">
-        <v>1153.943254438004</v>
+        <v>743.7418540946808</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.2075558267686</v>
+        <v>519.0061554834455</v>
       </c>
     </row>
   </sheetData>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K11" t="n">
-        <v>343.1166412638768</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.5271709917802</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L12" t="n">
-        <v>332.0881280166317</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>109.0406309578435</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.1529605161506</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,19 +8856,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>262.2572552157723</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.22500133971801</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>81.56721943976922</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>18.51244175280038</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>264.852918910795</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>116.0277704638522</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>294.8657752230642</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>283.3406610005242</v>
       </c>
       <c r="O15" t="n">
-        <v>311.5371632392216</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.8787810283401</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
@@ -9093,10 +9093,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>262.2572552157723</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
@@ -9105,7 +9105,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>107.0137949358609</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>81.56721943976896</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.6148552669263</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>311.5371632392216</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>358.1529605161505</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>106.1407585182987</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>262.257255215772</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>243.5222551492413</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>283.3653606635952</v>
+        <v>382.3263543086448</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>29.31745794701187</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.576245102550885</v>
+        <v>3.576245102550878</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>31.05789331409795</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>152.7565557952271</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>311.5371632392216</v>
       </c>
       <c r="P21" t="n">
-        <v>358.1529605161506</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>177.8643120872854</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9570,13 +9570,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>107.0137949358607</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>374.8705540075625</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>88.71014383149034</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>334.6578486943072</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>464.6238707963181</v>
+        <v>38.0336400425843</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>374.8705540075622</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>88.71014383149048</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.576245102550885</v>
+        <v>3.576245102550878</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>54.22285337407104</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>292.4153464995379</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>418.0080735193892</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10117,19 +10117,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>374.8705540075622</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.576245102550885</v>
+        <v>3.576245102550878</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>497.6377220988502</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51429640729708</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>464.2937190344488</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>348.4508580952378</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>283.9399535138846</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>421.0071933095655</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>374.8705540075625</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>373.0216404987611</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>38.0336400425843</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>18.5124417528003</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>264.8529189107949</v>
       </c>
       <c r="P35" t="n">
-        <v>314.536283029398</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>97.10752922625866</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>73.12690721576692</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>145.7959933559783</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10758,10 +10758,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>105.039378491109</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>159.1016428382673</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>160.8519380764158</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>250.7918741792412</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.56721943976896</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>204.8860699355502</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>294.8657752230642</v>
       </c>
       <c r="N39" t="n">
-        <v>54.22285337407209</v>
+        <v>283.3406610005241</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>50.31485733391468</v>
+        <v>243.5222551492415</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>283.3653606635951</v>
       </c>
       <c r="M41" t="n">
-        <v>250.7918741792411</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.57348648435413</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>38.03364004258478</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>283.3406610005242</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>269.8113575056236</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
         <v>208.3638319047618</v>
@@ -11226,19 +11226,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>262.257255215772</v>
       </c>
       <c r="O43" t="n">
-        <v>89.8829444016738</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>283.3653606635951</v>
       </c>
       <c r="K44" t="n">
-        <v>343.1166412638768</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>68.52717099178022</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>389.2108538302484</v>
+        <v>38.03364004258478</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>115.9728003958706</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11469,13 +11469,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>24.22500133971795</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240.2311515319629</v>
+        <v>217.7577975387861</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I11" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>117.5520758797313</v>
       </c>
       <c r="D13" t="n">
-        <v>82.11417565029522</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23433,10 +23433,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V14" t="n">
-        <v>249.7183317837113</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>248.2386990073176</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.563144259646748</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>12.51559264598384</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>404.3524875636604</v>
       </c>
       <c r="G17" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>352.3807475517839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S19" t="n">
-        <v>147.7033919290141</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>279.9213814272745</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>209.3797898006559</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>71.87904665246242</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I20" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>118.3175123886112</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>113.8168567957766</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>119.8968708194275</v>
       </c>
       <c r="H22" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>49.7196477179329</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>393.5680138037035</v>
       </c>
       <c r="H23" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I23" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>254.3303768639121</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3317950548276</v>
+        <v>25.10285066319597</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V25" t="n">
-        <v>174.9607914354188</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>152.6725087391945</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.677830204071029</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>136.712553648702</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>84.607198997571</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24697,7 +24697,7 @@
         <v>402.6471267764352</v>
       </c>
       <c r="H29" t="n">
-        <v>148.0020069373079</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I29" t="n">
         <v>8.619398793447928</v>
@@ -24736,19 +24736,19 @@
         <v>211.2562336341194</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>16.19845565169447</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>28.34497795405212</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.2018689485099</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.6471267764352</v>
+        <v>147.5988781657523</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I32" t="n">
         <v>8.619398793447928</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>104.6375212388613</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U32" t="n">
         <v>254.3303768639121</v>
@@ -24979,10 +24979,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>72.42575496250529</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.20525872441496</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S34" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>131.1967853700179</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>52.59937672188272</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>149.044709428619</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25165,16 +25165,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T35" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3303768639121</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>83.11474853421015</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>35.36781162173924</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25402,16 +25402,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>378.7524487508037</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>287.3796452813201</v>
+        <v>132.1443445267794</v>
       </c>
       <c r="I38" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>211.2562336341194</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.13805577781372</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I40" t="n">
         <v>88.28603573286843</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S40" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>52.20761153444334</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>272.1999891371183</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>70.92172383271173</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>86.63455080867334</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6835037092309</v>
+        <v>70.40439003518775</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>168.9411860548871</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.0455198688468</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>355.2273124892965</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25930,7 +25930,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26025,10 +26025,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>72.03344391675827</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>132.4490469577611</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423159.7231516564</v>
+        <v>423159.7231516563</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423159.7231516566</v>
+        <v>423159.7231516563</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481296.459384036</v>
+        <v>481296.4593840359</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481296.459384036</v>
+        <v>481296.4593840358</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481296.4593840359</v>
+        <v>481296.4593840358</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481296.4593840358</v>
+        <v>481296.459384036</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423159.7231516563</v>
+        <v>423159.7231516564</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423159.7231516564</v>
+        <v>423159.7231516563</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518407.7583024595</v>
+        <v>518407.7583024596</v>
       </c>
       <c r="C2" t="n">
         <v>518407.7583024596</v>
@@ -26322,40 +26322,40 @@
         <v>518407.7583024596</v>
       </c>
       <c r="E2" t="n">
-        <v>321207.5185867843</v>
+        <v>321207.5185867844</v>
       </c>
       <c r="F2" t="n">
         <v>321207.5185867844</v>
       </c>
       <c r="G2" t="n">
-        <v>321207.5185867844</v>
+        <v>321207.5185867843</v>
       </c>
       <c r="H2" t="n">
         <v>321207.5185867843</v>
       </c>
       <c r="I2" t="n">
+        <v>355452.8971248181</v>
+      </c>
+      <c r="J2" t="n">
+        <v>355452.8971248184</v>
+      </c>
+      <c r="K2" t="n">
         <v>355452.8971248183</v>
       </c>
-      <c r="J2" t="n">
-        <v>355452.8971248181</v>
-      </c>
-      <c r="K2" t="n">
-        <v>355452.8971248184</v>
-      </c>
       <c r="L2" t="n">
-        <v>355452.8971248181</v>
+        <v>355452.8971248182</v>
       </c>
       <c r="M2" t="n">
-        <v>321207.5185867843</v>
+        <v>321207.5185867844</v>
       </c>
       <c r="N2" t="n">
-        <v>321207.5185867845</v>
+        <v>321207.5185867842</v>
       </c>
       <c r="O2" t="n">
         <v>321207.5185867843</v>
       </c>
       <c r="P2" t="n">
-        <v>321207.518586784</v>
+        <v>321207.5185867843</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28312.85093261232</v>
+        <v>28312.8509326123</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99965.10778404585</v>
+        <v>99965.1077840458</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>42165.96836497073</v>
       </c>
       <c r="F4" t="n">
+        <v>42165.96836497074</v>
+      </c>
+      <c r="G4" t="n">
         <v>42165.96836497072</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>42165.9683649707</v>
+      </c>
+      <c r="I4" t="n">
+        <v>59701.83139300436</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59701.83139300435</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59701.83139300434</v>
+      </c>
+      <c r="L4" t="n">
+        <v>59701.83139300436</v>
+      </c>
+      <c r="M4" t="n">
         <v>42165.96836497073</v>
       </c>
-      <c r="H4" t="n">
-        <v>42165.96836497073</v>
-      </c>
-      <c r="I4" t="n">
-        <v>59701.83139300437</v>
-      </c>
-      <c r="J4" t="n">
-        <v>59701.83139300437</v>
-      </c>
-      <c r="K4" t="n">
-        <v>59701.83139300435</v>
-      </c>
-      <c r="L4" t="n">
-        <v>59701.83139300435</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>42165.96836497071</v>
       </c>
-      <c r="N4" t="n">
-        <v>42165.96836497073</v>
-      </c>
       <c r="O4" t="n">
-        <v>42165.96836497073</v>
+        <v>42165.96836497071</v>
       </c>
       <c r="P4" t="n">
-        <v>42165.96836497073</v>
+        <v>42165.96836497071</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131482.7406589608</v>
+        <v>131473.9409733314</v>
       </c>
       <c r="C6" t="n">
-        <v>131482.7406589608</v>
+        <v>131473.9409733314</v>
       </c>
       <c r="D6" t="n">
-        <v>131482.7406589609</v>
+        <v>131473.9409733315</v>
       </c>
       <c r="E6" t="n">
-        <v>-312662.9137950943</v>
+        <v>-313287.9642298351</v>
       </c>
       <c r="F6" t="n">
-        <v>237366.6666597502</v>
+        <v>236741.6162250092</v>
       </c>
       <c r="G6" t="n">
-        <v>237366.6666597502</v>
+        <v>236741.6162250092</v>
       </c>
       <c r="H6" t="n">
-        <v>237366.6666597501</v>
+        <v>236741.6162250092</v>
       </c>
       <c r="I6" t="n">
-        <v>219289.8998921039</v>
+        <v>218771.8662652943</v>
       </c>
       <c r="J6" t="n">
-        <v>247602.7508247161</v>
+        <v>247084.7171979068</v>
       </c>
       <c r="K6" t="n">
-        <v>247602.7508247163</v>
+        <v>247084.7171979067</v>
       </c>
       <c r="L6" t="n">
-        <v>247602.7508247161</v>
+        <v>247084.7171979066</v>
       </c>
       <c r="M6" t="n">
-        <v>137401.5588757042</v>
+        <v>136776.5084409634</v>
       </c>
       <c r="N6" t="n">
-        <v>237366.6666597502</v>
+        <v>236741.6162250091</v>
       </c>
       <c r="O6" t="n">
-        <v>237366.66665975</v>
+        <v>236741.6162250092</v>
       </c>
       <c r="P6" t="n">
-        <v>237366.6666597498</v>
+        <v>236741.6162250092</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>495.9762793031345</v>
       </c>
       <c r="H3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="J3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="K3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="L3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="O3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="P3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="F4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="G4" t="n">
         <v>507.608563704855</v>
@@ -26822,10 +26822,10 @@
         <v>614.0794739850226</v>
       </c>
       <c r="M4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="N4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="O4" t="n">
         <v>507.608563704855</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.4709102801671</v>
+        <v>106.470910280167</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>401.1376534246876</v>
+        <v>401.1376534246874</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32484,10 +32484,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N20" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O20" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P20" t="n">
         <v>286.7216439563412</v>
@@ -32499,13 +32499,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S20" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T20" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32569,13 +32569,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P21" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R21" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S21" t="n">
         <v>19.81565606461107</v>
@@ -32584,7 +32584,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H22" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I22" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J22" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K22" t="n">
         <v>103.9110958933452</v>
@@ -32654,13 +32654,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R22" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S22" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T22" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U22" t="n">
         <v>0.04878455206260345</v>
@@ -32721,10 +32721,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N23" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O23" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P23" t="n">
         <v>286.7216439563412</v>
@@ -32736,13 +32736,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S23" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T23" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32806,13 +32806,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P24" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S24" t="n">
         <v>19.81565606461107</v>
@@ -32821,7 +32821,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H25" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I25" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J25" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K25" t="n">
         <v>103.9110958933452</v>
@@ -32891,13 +32891,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S25" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T25" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U25" t="n">
         <v>0.04878455206260345</v>
@@ -32958,10 +32958,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N26" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O26" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P26" t="n">
         <v>286.7216439563412</v>
@@ -32973,13 +32973,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S26" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T26" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33043,13 +33043,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P27" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R27" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S27" t="n">
         <v>19.81565606461107</v>
@@ -33058,7 +33058,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H28" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I28" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J28" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K28" t="n">
         <v>103.9110958933452</v>
@@ -33128,13 +33128,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R28" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S28" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T28" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U28" t="n">
         <v>0.04878455206260345</v>
@@ -33195,10 +33195,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N29" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O29" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P29" t="n">
         <v>286.7216439563412</v>
@@ -33210,13 +33210,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S29" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T29" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33280,13 +33280,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P30" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R30" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S30" t="n">
         <v>19.81565606461107</v>
@@ -33295,7 +33295,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H31" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I31" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J31" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K31" t="n">
         <v>103.9110958933452</v>
@@ -33365,13 +33365,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R31" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S31" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T31" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U31" t="n">
         <v>0.04878455206260345</v>
@@ -33432,10 +33432,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N32" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O32" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P32" t="n">
         <v>286.7216439563412</v>
@@ -33447,13 +33447,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S32" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T32" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33517,13 +33517,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P33" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R33" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S33" t="n">
         <v>19.81565606461107</v>
@@ -33532,7 +33532,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H34" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I34" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J34" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K34" t="n">
         <v>103.9110958933452</v>
@@ -33602,13 +33602,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R34" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S34" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T34" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U34" t="n">
         <v>0.04878455206260345</v>
@@ -33669,10 +33669,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N35" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O35" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P35" t="n">
         <v>286.7216439563412</v>
@@ -33684,13 +33684,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S35" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T35" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33754,13 +33754,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P36" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R36" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S36" t="n">
         <v>19.81565606461107</v>
@@ -33769,7 +33769,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H37" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I37" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J37" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K37" t="n">
         <v>103.9110958933452</v>
@@ -33839,13 +33839,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R37" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S37" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T37" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U37" t="n">
         <v>0.04878455206260345</v>
@@ -33906,10 +33906,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N38" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O38" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P38" t="n">
         <v>286.7216439563412</v>
@@ -33921,13 +33921,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S38" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T38" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33991,13 +33991,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P39" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R39" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S39" t="n">
         <v>19.81565606461107</v>
@@ -34006,7 +34006,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H40" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I40" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J40" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K40" t="n">
         <v>103.9110958933452</v>
@@ -34076,13 +34076,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R40" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S40" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T40" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U40" t="n">
         <v>0.04878455206260345</v>
@@ -34143,10 +34143,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N41" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O41" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P41" t="n">
         <v>286.7216439563412</v>
@@ -34158,13 +34158,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S41" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T41" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34228,13 +34228,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P42" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R42" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S42" t="n">
         <v>19.81565606461107</v>
@@ -34243,7 +34243,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H43" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I43" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J43" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K43" t="n">
         <v>103.9110958933452</v>
@@ -34313,13 +34313,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R43" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S43" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T43" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U43" t="n">
         <v>0.04878455206260345</v>
@@ -34380,10 +34380,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N44" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O44" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P44" t="n">
         <v>286.7216439563412</v>
@@ -34395,13 +34395,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S44" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T44" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34465,13 +34465,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P45" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R45" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S45" t="n">
         <v>19.81565606461107</v>
@@ -34480,7 +34480,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H46" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I46" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J46" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K46" t="n">
         <v>103.9110958933452</v>
@@ -34550,13 +34550,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R46" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S46" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T46" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U46" t="n">
         <v>0.04878455206260345</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.904013633544</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K11" t="n">
-        <v>507.608563704855</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L11" t="n">
         <v>219.1629504643086</v>
@@ -35430,10 +35430,10 @@
         <v>193.0722806754571</v>
       </c>
       <c r="Q11" t="n">
-        <v>193.8093803879904</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R11" t="n">
-        <v>37.93557559643438</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J12" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K12" t="n">
-        <v>116.4417518861724</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L12" t="n">
-        <v>507.608563704855</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M12" t="n">
         <v>212.7427884817909</v>
@@ -35503,16 +35503,16 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O12" t="n">
-        <v>305.1120314234769</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P12" t="n">
-        <v>507.608563704855</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R12" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,19 +35576,19 @@
         <v>395.4927509205154</v>
       </c>
       <c r="M13" t="n">
-        <v>432.3845874657029</v>
+        <v>346.1909845862373</v>
       </c>
       <c r="N13" t="n">
-        <v>420.5405985836039</v>
+        <v>85.15241530321445</v>
       </c>
       <c r="O13" t="n">
-        <v>70.3421378385633</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P13" t="n">
         <v>315.9245833892493</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.75789385456576</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.904013633544</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K14" t="n">
-        <v>164.4919224409783</v>
+        <v>246.0591418807475</v>
       </c>
       <c r="L14" t="n">
         <v>219.1629504643086</v>
       </c>
       <c r="M14" t="n">
-        <v>275.3291312784143</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N14" t="n">
         <v>262.8597191197889</v>
       </c>
       <c r="O14" t="n">
-        <v>507.608563704855</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P14" t="n">
         <v>193.0722806754571</v>
@@ -35670,7 +35670,7 @@
         <v>125.2822093962102</v>
       </c>
       <c r="R14" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J15" t="n">
-        <v>49.42156339310208</v>
+        <v>165.4493338569543</v>
       </c>
       <c r="K15" t="n">
         <v>116.4417518861724</v>
@@ -35734,22 +35734,22 @@
         <v>175.5204356882234</v>
       </c>
       <c r="M15" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="N15" t="n">
-        <v>224.2679027043309</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="O15" t="n">
-        <v>507.608563704855</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P15" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q15" t="n">
-        <v>272.3644043427318</v>
+        <v>79.48562331439174</v>
       </c>
       <c r="R15" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K16" t="n">
         <v>260.0245582390401</v>
@@ -35813,10 +35813,10 @@
         <v>395.4927509205154</v>
       </c>
       <c r="M16" t="n">
-        <v>432.3845874657029</v>
+        <v>83.93372937046499</v>
       </c>
       <c r="N16" t="n">
-        <v>85.15241530321445</v>
+        <v>347.4096705189867</v>
       </c>
       <c r="O16" t="n">
         <v>388.5994705847659</v>
@@ -35825,7 +35825,7 @@
         <v>315.9245833892493</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.5466874507086</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,10 +35904,10 @@
         <v>193.0722806754571</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.8494288359792</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R17" t="n">
-        <v>37.93557559643438</v>
+        <v>119.5027950362033</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>212.7427884817909</v>
       </c>
       <c r="N18" t="n">
-        <v>465.8827579712572</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O18" t="n">
+        <v>196.0714004656334</v>
+      </c>
+      <c r="P18" t="n">
         <v>507.608563704855</v>
       </c>
-      <c r="P18" t="n">
-        <v>149.4556031887045</v>
-      </c>
       <c r="Q18" t="n">
-        <v>79.48562331439174</v>
+        <v>185.6263818326905</v>
       </c>
       <c r="R18" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45770761081161</v>
+        <v>11.79976454885567</v>
       </c>
       <c r="K19" t="n">
-        <v>260.0245582390401</v>
+        <v>51.66072633427837</v>
       </c>
       <c r="L19" t="n">
         <v>395.4927509205154</v>
       </c>
       <c r="M19" t="n">
-        <v>83.93372937046499</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N19" t="n">
-        <v>347.4096705189865</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O19" t="n">
         <v>388.5994705847659</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9245833892493</v>
+        <v>295.9140269494824</v>
       </c>
       <c r="Q19" t="n">
-        <v>141.0823472682186</v>
+        <v>13.53289251484775</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,19 +36132,19 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N20" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O20" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P20" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q20" t="n">
-        <v>408.6475700598054</v>
+        <v>507.608563704855</v>
       </c>
       <c r="R20" t="n">
-        <v>166.2140271884961</v>
+        <v>67.25303354344626</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K21" t="n">
-        <v>147.4996452002703</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L21" t="n">
-        <v>175.5204356882234</v>
+        <v>328.2769914834504</v>
       </c>
       <c r="M21" t="n">
         <v>212.7427884817909</v>
@@ -36214,16 +36214,16 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O21" t="n">
-        <v>196.0714004656334</v>
+        <v>507.608563704855</v>
       </c>
       <c r="P21" t="n">
-        <v>507.608563704855</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q21" t="n">
-        <v>489.5564889747692</v>
+        <v>79.48562331439174</v>
       </c>
       <c r="R21" t="n">
-        <v>7.236029289077372</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K22" t="n">
-        <v>260.0245582390401</v>
+        <v>229.5250384215638</v>
       </c>
       <c r="L22" t="n">
         <v>395.4927509205154</v>
@@ -36290,13 +36290,13 @@
         <v>432.3845874657029</v>
       </c>
       <c r="N22" t="n">
-        <v>192.1662102390752</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O22" t="n">
         <v>388.5994705847659</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9245833892493</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q22" t="n">
         <v>13.53289251484775</v>
@@ -36369,19 +36369,19 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N23" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O23" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P23" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q23" t="n">
-        <v>500.1527634037727</v>
+        <v>539.7210711643442</v>
       </c>
       <c r="R23" t="n">
-        <v>166.2140271884961</v>
+        <v>126.6457194279247</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J24" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0996005804795</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L24" t="n">
         <v>175.5204356882234</v>
@@ -36454,13 +36454,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P24" t="n">
-        <v>614.0794739850226</v>
+        <v>187.4892432312888</v>
       </c>
       <c r="Q24" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R24" t="n">
-        <v>7.236029289077372</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K25" t="n">
         <v>260.0245582390401</v>
@@ -36597,28 +36597,28 @@
         <v>425.980606449432</v>
       </c>
       <c r="K26" t="n">
-        <v>164.4919224409783</v>
+        <v>539.3624764485405</v>
       </c>
       <c r="L26" t="n">
         <v>219.1629504643086</v>
       </c>
       <c r="M26" t="n">
-        <v>345.5268333571044</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N26" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O26" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P26" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q26" t="n">
-        <v>539.721071164344</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R26" t="n">
-        <v>37.93557559643438</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K27" t="n">
-        <v>116.4417518861724</v>
+        <v>170.6646052602434</v>
       </c>
       <c r="L27" t="n">
         <v>175.5204356882234</v>
@@ -36685,19 +36685,19 @@
         <v>212.7427884817909</v>
       </c>
       <c r="N27" t="n">
-        <v>516.6832492038687</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O27" t="n">
-        <v>614.0794739850226</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P27" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q27" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R27" t="n">
-        <v>96.0943287607756</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K28" t="n">
         <v>260.0245582390401</v>
@@ -36764,7 +36764,7 @@
         <v>432.3845874657029</v>
       </c>
       <c r="N28" t="n">
-        <v>420.5405985836037</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O28" t="n">
         <v>388.5994705847659</v>
@@ -36837,19 +36837,19 @@
         <v>164.4919224409783</v>
       </c>
       <c r="L29" t="n">
-        <v>594.0335044718709</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M29" t="n">
         <v>256.8166895256139</v>
       </c>
       <c r="N29" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O29" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P29" t="n">
-        <v>193.0722806754571</v>
+        <v>567.9428346830192</v>
       </c>
       <c r="Q29" t="n">
         <v>125.2822093962102</v>
@@ -36913,7 +36913,7 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K30" t="n">
-        <v>614.0794739850226</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L30" t="n">
         <v>175.5204356882234</v>
@@ -36922,19 +36922,19 @@
         <v>212.7427884817909</v>
       </c>
       <c r="N30" t="n">
-        <v>279.782199111628</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O30" t="n">
         <v>196.0714004656334</v>
       </c>
       <c r="P30" t="n">
-        <v>149.4556031887045</v>
+        <v>613.7493222231533</v>
       </c>
       <c r="Q30" t="n">
         <v>79.48562331439174</v>
       </c>
       <c r="R30" t="n">
-        <v>7.236029289077372</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K31" t="n">
-        <v>260.02455823904</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L31" t="n">
         <v>395.4927509205154</v>
       </c>
       <c r="M31" t="n">
-        <v>432.3845874657029</v>
+        <v>432.3845874657027</v>
       </c>
       <c r="N31" t="n">
         <v>420.5405985836039</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.904013633544</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K32" t="n">
         <v>164.4919224409783</v>
@@ -37080,16 +37080,16 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N32" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O32" t="n">
-        <v>526.6955983079447</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P32" t="n">
-        <v>614.0794739850226</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q32" t="n">
-        <v>125.2822093962102</v>
+        <v>500.1527634037727</v>
       </c>
       <c r="R32" t="n">
         <v>166.2140271884961</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.18921333148689</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J33" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K33" t="n">
         <v>116.4417518861724</v>
@@ -37162,16 +37162,16 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O33" t="n">
-        <v>569.0930409643945</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P33" t="n">
-        <v>149.4556031887045</v>
+        <v>187.4892432312888</v>
       </c>
       <c r="Q33" t="n">
         <v>489.5564889747692</v>
       </c>
       <c r="R33" t="n">
-        <v>7.236029289077372</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K34" t="n">
         <v>260.0245582390401</v>
       </c>
       <c r="L34" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M34" t="n">
         <v>432.3845874657029</v>
@@ -37311,25 +37311,25 @@
         <v>164.4919224409783</v>
       </c>
       <c r="L35" t="n">
-        <v>219.1629504643086</v>
+        <v>237.6753922171089</v>
       </c>
       <c r="M35" t="n">
         <v>256.8166895256139</v>
       </c>
       <c r="N35" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O35" t="n">
-        <v>242.7556447940601</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="P35" t="n">
-        <v>507.608563704855</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3897386224689</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R35" t="n">
-        <v>37.93557559643438</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J36" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K36" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="L36" t="n">
         <v>175.5204356882234</v>
@@ -37399,16 +37399,16 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O36" t="n">
-        <v>269.1983076814003</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P36" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.48562331439174</v>
+        <v>225.2816166703701</v>
       </c>
       <c r="R36" t="n">
-        <v>96.0943287607756</v>
+        <v>7.236029289077386</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K37" t="n">
-        <v>51.66072633427837</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L37" t="n">
-        <v>395.4927509205154</v>
+        <v>78.34213351140116</v>
       </c>
       <c r="M37" t="n">
         <v>432.3845874657029</v>
@@ -37478,10 +37478,10 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O37" t="n">
-        <v>175.3815163296723</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9245833892493</v>
+        <v>211.4934146385084</v>
       </c>
       <c r="Q37" t="n">
         <v>141.0823472682186</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>425.980606449432</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K38" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L38" t="n">
-        <v>219.1629504643086</v>
+        <v>380.0148885407244</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8166895256139</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="N38" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O38" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P38" t="n">
         <v>193.0722806754571</v>
@@ -37566,7 +37566,7 @@
         <v>125.2822093962102</v>
       </c>
       <c r="R38" t="n">
-        <v>119.5027950362033</v>
+        <v>37.93557559643439</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J39" t="n">
-        <v>295.5512643775801</v>
+        <v>254.3076333286523</v>
       </c>
       <c r="K39" t="n">
         <v>116.4417518861724</v>
@@ -37630,10 +37630,10 @@
         <v>175.5204356882234</v>
       </c>
       <c r="M39" t="n">
-        <v>212.7427884817909</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="N39" t="n">
-        <v>278.490756078403</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="O39" t="n">
         <v>196.0714004656334</v>
@@ -37642,10 +37642,10 @@
         <v>149.4556031887045</v>
       </c>
       <c r="Q39" t="n">
-        <v>489.5564889747692</v>
+        <v>79.48562331439174</v>
       </c>
       <c r="R39" t="n">
-        <v>96.0943287607756</v>
+        <v>7.236029289077386</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>77.45770761081161</v>
+        <v>11.79976454885568</v>
       </c>
       <c r="K40" t="n">
-        <v>51.66072633427837</v>
+        <v>51.66072633427838</v>
       </c>
       <c r="L40" t="n">
         <v>395.4927509205154</v>
@@ -37718,10 +37718,10 @@
         <v>388.5994705847659</v>
       </c>
       <c r="P40" t="n">
-        <v>102.7066291341558</v>
+        <v>295.9140269494826</v>
       </c>
       <c r="Q40" t="n">
-        <v>141.0823472682186</v>
+        <v>13.53289251484775</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>164.4919224409783</v>
       </c>
       <c r="L41" t="n">
-        <v>219.1629504643086</v>
+        <v>502.5283111279037</v>
       </c>
       <c r="M41" t="n">
-        <v>507.608563704855</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N41" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O41" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P41" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q41" t="n">
-        <v>157.8556958805644</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R41" t="n">
         <v>166.2140271884961</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J42" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K42" t="n">
-        <v>116.4417518861724</v>
+        <v>154.4753919287572</v>
       </c>
       <c r="L42" t="n">
         <v>175.5204356882234</v>
@@ -37870,7 +37870,7 @@
         <v>212.7427884817909</v>
       </c>
       <c r="N42" t="n">
-        <v>507.608563704855</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O42" t="n">
         <v>196.0714004656334</v>
@@ -37879,10 +37879,10 @@
         <v>149.4556031887045</v>
       </c>
       <c r="Q42" t="n">
-        <v>349.2969808200153</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R42" t="n">
-        <v>7.236029289077372</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K43" t="n">
         <v>260.0245582390401</v>
@@ -37946,19 +37946,19 @@
         <v>395.4927509205154</v>
       </c>
       <c r="M43" t="n">
-        <v>432.3845874657029</v>
+        <v>83.93372937046499</v>
       </c>
       <c r="N43" t="n">
-        <v>420.5405985836039</v>
+        <v>347.4096705189865</v>
       </c>
       <c r="O43" t="n">
-        <v>160.2250822402371</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P43" t="n">
         <v>315.9245833892493</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.53289251484775</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.904013633544</v>
+        <v>379.2693742971391</v>
       </c>
       <c r="K44" t="n">
-        <v>507.608563704855</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6901214560888</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M44" t="n">
         <v>256.8166895256139</v>
       </c>
       <c r="N44" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O44" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P44" t="n">
         <v>193.0722806754571</v>
@@ -38040,7 +38040,7 @@
         <v>125.2822093962102</v>
       </c>
       <c r="R44" t="n">
-        <v>37.93557559643438</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J45" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K45" t="n">
-        <v>505.6526057164208</v>
+        <v>154.4753919287572</v>
       </c>
       <c r="L45" t="n">
         <v>175.5204356882234</v>
@@ -38119,7 +38119,7 @@
         <v>489.5564889747692</v>
       </c>
       <c r="R45" t="n">
-        <v>7.236029289077372</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K46" t="n">
-        <v>167.633526730149</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L46" t="n">
         <v>395.4927509205154</v>
@@ -38189,13 +38189,13 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O46" t="n">
-        <v>388.5994705847659</v>
+        <v>94.56713917828125</v>
       </c>
       <c r="P46" t="n">
-        <v>52.3917718002411</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.0823472682186</v>
+        <v>13.53289251484775</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
